--- a/excels/导入市场活动格式.xlsx
+++ b/excels/导入市场活动格式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="120" windowWidth="34400" windowHeight="19520" tabRatio="500"/>
+    <workbookView xWindow="2760" yWindow="-20" windowWidth="34400" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,26 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
-    <t>啊1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大连</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +100,26 @@
   </si>
   <si>
     <t>主持人</t>
+  </si>
+  <si>
+    <t>客户1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -496,139 +496,142 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1">
-        <v>1111</v>
+        <v>13512345678</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F1">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>2222</v>
+        <v>12634567893</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>3333</v>
+        <v>18899994444</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>4444</v>
+        <v>18600000000</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>55555</v>
+        <v>13999999999</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
